--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/92_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/92_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R023c8041973543c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="Rf7daf69734324cc1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -193,7 +193,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R135d91369d6047b7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcde0449fd5e34084"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -236,6 +236,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19951406768d4f23"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1e244b58905d4fe6"/>
 </x:worksheet>
 </file>